--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB805A-6793-41EB-B56F-EDF662711623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97F043-AA0F-40E5-BAE3-1BE5EECF3EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265/T2264/T2268</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1735/T1741</t>
   </si>
 </sst>
 </file>
@@ -703,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,4 +866,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE530DB-36D3-439D-9512-BDCF546A98C2}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B97F043-AA0F-40E5-BAE3-1BE5EECF3EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26356112-7E35-468B-ADF6-AB7BDF5F2298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>PR8AS</t>
-  </si>
-  <si>
-    <t>ZXF</t>
-  </si>
-  <si>
-    <t>ZXFEV</t>
   </si>
   <si>
     <t>NGC-3475/T1730</t>
@@ -546,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -595,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -678,21 +672,11 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -708,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -757,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -840,21 +824,11 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -897,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -919,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26356112-7E35-468B-ADF6-AB7BDF5F2298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D96EA-F294-4AD7-BBF0-E9BC11F2CAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,24 @@
   </si>
   <si>
     <t>NGC-3477/T1735/T1741</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>P32AR-CH</t>
+  </si>
+  <si>
+    <t>P32DR-CH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2345</t>
   </si>
 </sst>
 </file>
@@ -846,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE530DB-36D3-439D-9512-BDCF546A98C2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -992,4 +1011,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC0976-3F7E-43F2-868F-32F149F196E5}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429D96EA-F294-4AD7-BBF0-E9BC11F2CAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E329A0E-986E-4FBF-8F96-AC4545A0C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>NGC-3476/T2345</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2405</t>
   </si>
 </sst>
 </file>
@@ -714,7 +721,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC0976-3F7E-43F2-868F-32F149F196E5}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1173,4 +1180,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661329C-4A10-436D-92C6-4B43C377FA6A}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E329A0E-986E-4FBF-8F96-AC4545A0C3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD15584E-BC3B-4D96-9321-88B92B260C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +146,12 @@
   </si>
   <si>
     <t>NGC-3479/T2405</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3221</t>
   </si>
 </sst>
 </file>
@@ -1186,6 +1193,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4661329C-4A10-436D-92C6-4B43C377FA6A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCEDECD-CA85-43D8-9833-F49E51E1DD02}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1211,14 +1370,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1228,19 +1387,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -1296,31 +1455,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD15584E-BC3B-4D96-9321-88B92B260C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58F532-FB99-4A5A-AFCA-D5C84187D0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
+    <sheet name="Italy" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -152,6 +153,12 @@
   </si>
   <si>
     <t>NGC-2930/T3221</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2156/T2158 </t>
   </si>
 </sst>
 </file>
@@ -576,7 +583,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCEDECD-CA85-43D8-9833-F49E51E1DD02}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,4 +1488,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00F111-D368-47C9-87D2-EBDF7731371B}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58F532-FB99-4A5A-AFCA-D5C84187D0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45587974-1102-4CFB-86F6-1A9990FA567E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="18" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
+    <sheet name="Spain" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>NGC-3145/T2156/T2158 </t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2035/</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00F111-D368-47C9-87D2-EBDF7731371B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,4 +1647,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB02F95-8025-44D8-8211-ACF7D773B265}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45587974-1102-4CFB-86F6-1A9990FA567E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7634FE4-A62D-40FB-BEEA-C5CA2F033F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="19" r:id="rId6"/>
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +167,12 @@
   </si>
   <si>
     <t>NGC-3103/T2035/</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3293/</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB02F95-8025-44D8-8211-ACF7D773B265}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,4 +1806,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D2DC77-445F-486C-AD84-CA47B7C8354A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7634FE4-A62D-40FB-BEEA-C5CA2F033F11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B77FA-5BD4-4304-80AC-E2812E57F000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="20" r:id="rId7"/>
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -173,6 +174,12 @@
   </si>
   <si>
     <t>NGC-3191/T3293/</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2416</t>
   </si>
 </sst>
 </file>
@@ -744,6 +751,148 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835685-A50C-4B85-AF60-C73514BFA0A7}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5B9C-DBAD-4252-BD55-61600A87558A}">
   <dimension ref="A1:D21"/>
@@ -1367,7 +1516,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1810,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D2DC77-445F-486C-AD84-CA47B7C8354A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0B77FA-5BD4-4304-80AC-E2812E57F000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3BE90-402D-4CEF-A07C-AD60D57A805A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="21" r:id="rId8"/>
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
     <sheet name="Croatia" sheetId="23" r:id="rId10"/>
+    <sheet name="Greece" sheetId="24" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -180,6 +181,12 @@
   </si>
   <si>
     <t>NGC-3139/T2416</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3166</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -755,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C835685-A50C-4B85-AF60-C73514BFA0A7}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,6 +810,148 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2EAF2-CC8C-4DE8-A9FB-71B721682B16}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3BE90-402D-4CEF-A07C-AD60D57A805A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86F624-A80C-4737-A8ED-EE3208AC356F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="22" r:id="rId9"/>
     <sheet name="Croatia" sheetId="23" r:id="rId10"/>
     <sheet name="Greece" sheetId="24" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="25" r:id="rId12"/>
+    <sheet name="Austria" sheetId="26" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="27" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +190,27 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2177</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2273</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>MZXSDR240</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2751</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -904,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2EAF2-CC8C-4DE8-A9FB-71B721682B16}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1029,6 +1053,447 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F71A85D-B27D-4DA7-BD72-8F55625F271A}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987B28B-22F0-4A1C-A995-838CDFB7BD44}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A4366-1303-4AEC-A4C9-B024329CC6B4}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86F624-A80C-4737-A8ED-EE3208AC356F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C852B01-73D8-44E5-A1B6-0B6D7D4FB890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="25" r:id="rId12"/>
     <sheet name="Austria" sheetId="26" r:id="rId13"/>
     <sheet name="Denmark" sheetId="27" r:id="rId14"/>
+    <sheet name="Russia" sheetId="29" r:id="rId15"/>
+    <sheet name="Finland" sheetId="30" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="31" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +214,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2899/</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2942/</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2991/</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A4366-1303-4AEC-A4C9-B024329CC6B4}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1494,6 +1515,434 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A35C00-E4FA-41FE-83F2-250CD6A264A4}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D086CBF2-EEC8-4F0D-B7FF-297219227D5A}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8B189-18B8-493C-B12F-A8512B73157D}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C852B01-73D8-44E5-A1B6-0B6D7D4FB890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE535D6E-44DE-4A04-BBC4-AEAA087634F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="29" r:id="rId15"/>
     <sheet name="Finland" sheetId="30" r:id="rId16"/>
     <sheet name="Hungary" sheetId="31" r:id="rId17"/>
+    <sheet name="Norway" sheetId="32" r:id="rId18"/>
+    <sheet name="Poland" sheetId="33" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="65">
   <si>
     <t>Wg</t>
   </si>
@@ -232,6 +234,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061/T3060</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3104/T3103</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8B189-18B8-493C-B12F-A8512B73157D}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1873,6 +1887,295 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755E987-1A45-4A29-BCCC-C550B7D7D7BA}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A026536-6FC6-4EC5-8459-04B261D10B4A}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
+++ b/Test Data/Gallery_MainProcessors_Repeaters_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE535D6E-44DE-4A04-BBC4-AEAA087634F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F4FDFE-9993-4B9D-893E-F78E0FF535B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="31" r:id="rId17"/>
     <sheet name="Norway" sheetId="32" r:id="rId18"/>
     <sheet name="Poland" sheetId="33" r:id="rId19"/>
+    <sheet name="UK" sheetId="34" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="67">
   <si>
     <t>Wg</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3342</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6755E987-1A45-4A29-BCCC-C550B7D7D7BA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2411,6 +2418,158 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389987FB-2C52-4441-BC65-1A48F5E0681A}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE530DB-36D3-439D-9512-BDCF546A98C2}">
   <dimension ref="A1:D21"/>
